--- a/A 2018-2019/InputData.xlsx
+++ b/A 2018-2019/InputData.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Rvalue</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
@@ -28,9 +43,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>Outside Air</t>
   </si>
   <si>
@@ -43,30 +55,26 @@
     <t>Glass Fiber Insulation</t>
   </si>
   <si>
-    <t>Length</t>
+    <t>conv</t>
   </si>
   <si>
     <t>cond</t>
-  </si>
-  <si>
-    <t>conv</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Rvalue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,54 +98,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -184,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,10 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,102 +415,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
+      <c r="F3">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
+      <c r="F4">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>0.09</v>
       </c>
       <c r="E5">
         <v>100</v>
+      </c>
+      <c r="F5">
+        <v>2.52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>